--- a/导表工具/Excels/__beans__.xlsx
+++ b/导表工具/Excels/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\导表工具\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B52D22-F307-4C10-B324-0550B0C383EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B226369-E7C1-BC42-8D99-CB61A12FA114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="250" windowWidth="38400" windowHeight="20750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -70,22 +70,21 @@
     <t>注释</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Battle.Attribute</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>parent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +104,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,12 +112,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,6 +128,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,12 +194,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,32 +482,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -505,15 +518,15 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -533,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,31 +569,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>19</v>
+    <row r="5" spans="1:11">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__beans__.xlsx
+++ b/导表工具/Excels/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B226369-E7C1-BC42-8D99-CB61A12FA114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39054CF7-08C6-F74E-BB0D-CF6BCFF9BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>##</t>
   </si>
@@ -70,9 +70,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -84,7 +81,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QI</t>
+    <t>MaxHP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxQI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -199,11 +216,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -482,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -507,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -518,13 +535,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -570,22 +587,46 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__beans__.xlsx
+++ b/导表工具/Excels/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39054CF7-08C6-F74E-BB0D-CF6BCFF9BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C27E843-079C-3D4A-92DB-64C1E477A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>##</t>
   </si>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Battle.Attribute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxHP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -102,6 +98,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.Property</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -588,10 +592,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -599,34 +603,42 @@
     </row>
     <row r="5" spans="1:11">
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
